--- a/data/isotopes/metabolomics_processing_samples.xlsx
+++ b/data/isotopes/metabolomics_processing_samples.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D4D253-8BD8-8443-B0BD-BCE9C6143199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2D9114-703C-DB4A-A1AD-8B296C0E5FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="760" windowWidth="26440" windowHeight="15440" xr2:uid="{C1F9C815-9966-6C45-B645-16FEEC101114}"/>
+    <workbookView xWindow="33660" yWindow="-920" windowWidth="26440" windowHeight="15440" xr2:uid="{C1F9C815-9966-6C45-B645-16FEEC101114}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="84">
   <si>
     <t>sample</t>
   </si>
@@ -47,18 +47,9 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>clipped</t>
-  </si>
-  <si>
     <t>extracted</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL BUDGETED </t>
-  </si>
-  <si>
-    <t>TOTAL SAMPLES</t>
-  </si>
-  <si>
     <t>lifestage</t>
   </si>
   <si>
@@ -173,12 +164,6 @@
     <t>A retusa</t>
   </si>
   <si>
-    <t>ACR</t>
-  </si>
-  <si>
-    <t>POC</t>
-  </si>
-  <si>
     <t>genus</t>
   </si>
   <si>
@@ -254,9 +239,6 @@
     <t>M21</t>
   </si>
   <si>
-    <t>POC Larvae</t>
-  </si>
-  <si>
     <t>ACR-C12-27</t>
   </si>
   <si>
@@ -278,12 +260,6 @@
     <t>POC-A20</t>
   </si>
   <si>
-    <t>sample-id</t>
-  </si>
-  <si>
-    <t>vial-labels</t>
-  </si>
-  <si>
     <t>host-fractionated</t>
   </si>
   <si>
@@ -297,6 +273,21 @@
   </si>
   <si>
     <t>100 µL</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>coral</t>
+  </si>
+  <si>
+    <t>ACR-C13-27</t>
+  </si>
+  <si>
+    <t>POC-C13-27</t>
   </si>
 </sst>
 </file>
@@ -326,12 +317,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -340,7 +346,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,1664 +681,1621 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A802ABC-3172-894A-9509-B8AF7B95C274}">
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
-    <col min="18" max="18" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="10.83203125" style="1"/>
+    <col min="15" max="15" width="10.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P2">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3">
-        <v>27</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="R3" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3">
-        <f>17+15+21+2+2</f>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" t="s">
-        <v>86</v>
-      </c>
-      <c r="O4">
-        <v>30</v>
-      </c>
-      <c r="P4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5">
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1">
         <v>33</v>
       </c>
-      <c r="P5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12">
-        <v>33</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
         <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="M13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14">
+        <v>71</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="M14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>71</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1">
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16">
+        <v>71</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1">
         <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17">
+        <v>71</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="F17" s="1">
         <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="M17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18">
+        <v>71</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1">
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19">
+        <v>71</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F19" s="1">
         <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="M19" t="s">
-        <v>86</v>
-      </c>
-      <c r="O19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20">
+        <v>71</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
         <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="M20" t="s">
-        <v>86</v>
-      </c>
-      <c r="O20">
-        <v>27</v>
-      </c>
-      <c r="P20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21">
+        <v>71</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1">
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M21" t="s">
-        <v>86</v>
-      </c>
-      <c r="O21">
+        <v>71</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1">
         <v>30</v>
       </c>
-      <c r="P21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="G22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="1">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <v>30</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" t="s">
-        <v>86</v>
-      </c>
-      <c r="O22">
-        <v>33</v>
-      </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23">
-        <v>33</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" t="s">
-        <v>86</v>
-      </c>
-      <c r="O23" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F24">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1">
         <v>27</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25">
+        <v>71</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" s="1">
         <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26">
+        <v>71</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1">
         <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27">
+        <v>71</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1">
         <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="M27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28">
+        <v>71</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="M28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29">
+        <v>71</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1">
         <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="M29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30">
+        <v>71</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1">
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31">
+        <v>71</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F31">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1">
         <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="M31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32">
+        <v>71</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1">
         <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33">
+        <v>71</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F33">
+        <v>39</v>
+      </c>
+      <c r="F33" s="1">
         <v>33</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34">
+        <v>71</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1">
         <v>30</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" t="s">
-        <v>86</v>
-      </c>
-      <c r="O34" t="s">
-        <v>72</v>
-      </c>
-      <c r="P34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35">
+        <v>71</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1">
         <v>27</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="M35" t="s">
-        <v>86</v>
-      </c>
-      <c r="O35">
-        <v>27</v>
-      </c>
-      <c r="P35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36">
+        <v>71</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F36" s="1">
         <v>33</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M36" t="s">
-        <v>86</v>
-      </c>
-      <c r="O36">
-        <v>30</v>
-      </c>
-      <c r="P36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37">
+        <v>71</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F37" s="1">
         <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="M37" t="s">
-        <v>86</v>
-      </c>
-      <c r="O37">
-        <v>33</v>
-      </c>
-      <c r="P37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38">
+        <v>71</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F38" s="1">
         <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="M38" t="s">
-        <v>86</v>
-      </c>
-      <c r="O38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39">
+        <v>71</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39">
+        <v>39</v>
+      </c>
+      <c r="F39" s="1">
         <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40">
+        <v>71</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40">
+        <v>39</v>
+      </c>
+      <c r="F40" s="1">
         <v>30</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41">
+        <v>71</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41" s="1">
         <v>33</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42">
+        <v>71</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="1">
         <v>30</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="M42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43">
+        <v>71</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1">
         <v>30</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="M43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44">
+        <v>71</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F44" s="1">
         <v>33</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="M44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45">
+        <v>71</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F45" s="1">
         <v>27</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H45" s="1"/>
-      <c r="M45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46">
+        <v>39</v>
+      </c>
+      <c r="F46" s="1">
         <v>33</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47">
+        <v>71</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1">
         <v>30</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48">
+        <v>71</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48">
+        <v>39</v>
+      </c>
+      <c r="F48" s="1">
         <v>33</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49">
+        <v>71</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F49" s="1">
         <v>30</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50">
+        <v>71</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F50" s="1">
         <v>27</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51">
+        <v>71</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F51" s="1">
         <v>30</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="M51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52">
+        <v>71</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F52" s="1">
         <v>33</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="M52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53">
+        <v>71</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F53">
+        <v>39</v>
+      </c>
+      <c r="F53" s="1">
         <v>27</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54">
+        <v>71</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F54">
+        <v>39</v>
+      </c>
+      <c r="F54" s="1">
         <v>33</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55">
+        <v>71</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F55" s="1">
         <v>27</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56">
+        <v>71</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F56" s="1">
         <v>33</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H56" s="1"/>
-      <c r="M56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57">
+        <v>71</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F57" s="1">
         <v>30</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58">
+        <v>71</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F58" s="1">
         <v>27</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M58" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J59">
     <sortCondition ref="A2:A59"/>
     <sortCondition ref="B2:B59"/>
     <sortCondition ref="E2:E59"/>
@@ -2340,5 +2303,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/isotopes/metabolomics_processing_samples.xlsx
+++ b/data/isotopes/metabolomics_processing_samples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/moorea_symbiotic_exchange_2023/data/isotopes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2D9114-703C-DB4A-A1AD-8B296C0E5FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1E74F4-C1BD-C241-8247-3053EE178716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33660" yWindow="-920" windowWidth="26440" windowHeight="15440" xr2:uid="{C1F9C815-9966-6C45-B645-16FEEC101114}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="82">
   <si>
     <t>sample</t>
   </si>
@@ -47,9 +47,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>extracted</t>
-  </si>
-  <si>
     <t>lifestage</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>M17</t>
   </si>
   <si>
-    <t>M18</t>
-  </si>
-  <si>
     <t>M19</t>
   </si>
   <si>
@@ -260,15 +254,9 @@
     <t>POC-A20</t>
   </si>
   <si>
-    <t>host-fractionated</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
-    <t xml:space="preserve">host-volume </t>
-  </si>
-  <si>
     <t>vial-volume</t>
   </si>
   <si>
@@ -288,6 +276,12 @@
   </si>
   <si>
     <t>POC-C13-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: There is no sample 47, it was spilled and was not included. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Each sample has duplicate vials with an "A" and a "B" vial. These can be used for positive and negative polarities. </t>
   </si>
 </sst>
 </file>
@@ -681,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A802ABC-3172-894A-9509-B8AF7B95C274}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -696,27 +690,24 @@
     <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="14" width="10.83203125" style="1"/>
-    <col min="15" max="15" width="10.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="10.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -725,1581 +716,1556 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1">
         <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
         <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1">
         <v>27</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
         <v>33</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1">
         <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1">
         <v>30</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1">
         <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1">
         <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1">
         <v>30</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1">
         <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
         <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1">
         <v>30</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1">
         <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1">
         <v>27</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1">
         <v>33</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F26" s="1">
         <v>27</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1">
         <v>27</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1">
         <v>30</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1">
         <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F30" s="1">
         <v>30</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1">
         <v>27</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F32" s="1">
         <v>27</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1">
         <v>33</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F34" s="1">
         <v>30</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1">
         <v>27</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F36" s="1">
         <v>33</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="1">
         <v>33</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="1">
         <v>27</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" s="1">
         <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F40" s="1">
         <v>30</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41" s="1">
         <v>33</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="1">
         <v>30</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="1">
         <v>30</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="1">
         <v>33</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" s="1">
         <v>27</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1">
         <v>33</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F47" s="1">
         <v>30</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F48" s="1">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F49" s="1">
+        <v>27</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="1">
         <v>30</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="G50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="1">
+        <v>33</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F50" s="1">
+      <c r="D52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1">
         <v>27</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="G52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="1">
-        <v>30</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="1">
+      <c r="C53" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="1">
         <v>33</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F53" s="1">
-        <v>27</v>
-      </c>
       <c r="G53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F55" s="1">
+        <v>33</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="1">
+        <v>30</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="1">
         <v>27</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55" s="1" t="s">
+      <c r="G57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F56" s="1">
-        <v>33</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="1">
-        <v>30</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F58" s="1">
-        <v>27</v>
+        <v>76</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>78</v>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J59">
-    <sortCondition ref="A2:A59"/>
-    <sortCondition ref="B2:B59"/>
-    <sortCondition ref="E2:E59"/>
-    <sortCondition ref="F2:F59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
+    <sortCondition ref="A2:A58"/>
+    <sortCondition ref="B2:B58"/>
+    <sortCondition ref="E2:E58"/>
+    <sortCondition ref="F2:F58"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
